--- a/Writing/metrics_table.xlsx
+++ b/Writing/metrics_table.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahmunk/Desktop/Projects/Acropora_Regeneration-main/Writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06FCEA-9A01-9F4D-85DC-67BB6BAA7392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E691BD6-6C31-9F4E-9883-4356E1C674BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="all_metrics" sheetId="2" r:id="rId1"/>
+    <sheet name="holobiont" sheetId="6" r:id="rId2"/>
+    <sheet name="growth" sheetId="4" r:id="rId3"/>
+    <sheet name="regen_capacity" sheetId="3" r:id="rId4"/>
+    <sheet name="symbiont" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Coral Holobiont Performance</t>
   </si>
@@ -53,9 +57,6 @@
     <t>Growth rate</t>
   </si>
   <si>
-    <t>Wound closure and structure re-formation rate</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -65,41 +66,65 @@
     <t>Rationale</t>
   </si>
   <si>
-    <t>Increased respiration will indicate a colony-level stress response, placing energetic constraints on regeneration.</t>
-  </si>
-  <si>
     <t>Synchronous growth between unwounded and wounded corals indicates no apparant trade off with regeneration. Asynchronous growth among unwounded and wounded corals with the addition of elevated temperature indicates a temperature mediated trade-off.</t>
   </si>
   <si>
     <t>Regenerative Capacity</t>
   </si>
   <si>
-    <t>Photosynthetic rate is a measurement of symbiont productivity which is the primary source of oxygen and nutritional energy for the coral host to fuel metabolic processes.</t>
-  </si>
-  <si>
     <t>Growth rate is a measurement of skeletal accretion. Growth is posited to compete for energy with reproduction and regeneration.</t>
   </si>
   <si>
-    <t>Wound closure and body part re-formation rate are measurements of regeneration. Damaged or lost tissue and skeleton removes surface area available for energy aquisition. Regeneration requires energy to fuel repair processes including wound closure, reconstructing corallites, and new polyp formation.</t>
-  </si>
-  <si>
-    <t>Reduced photosynthesis will lower productivity, supplying less energy for regeneration, especially if respiration rates are increased with stressors.</t>
-  </si>
-  <si>
-    <t>Synchronous wound closure and structure re-formation indicates no apparant differences in regeneration capacity between wound type. Asynchronous wound closure and structure re-formation between wound types with the addition of elevated temperature indicates a temperature mediated regeneration capacity.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Response Variable(s)</t>
+  </si>
+  <si>
+    <t>Photosynthetic rate is a measurement of symbiont productivity which is the primary source of oxygen and nutritional energy for the coral host to fuel metabolic processes. Photosynthetic efficiency is the capacity of light-harvesting machinery to capture and convert light energy into photosynthetic products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced photosynthesis and photosynthetic efficiency (Fv/Fm) lowers  productivity and threatens symbiosis. Aquisition of new  energy to support regeneration is lowered and/or compromised, especially if respiration rates are increased with stressors. </t>
+  </si>
+  <si>
+    <t>If stressors increases respiration, then energetic contraints will be placed on regeneration and/or growth.</t>
+  </si>
+  <si>
+    <t>If stressors decrease photosynthesis and/or photosynthetic efficiency, then energetic contraints will be placed on regeneration and/or growth.</t>
+  </si>
+  <si>
+    <t>If energetic constraints are placed on growth, then growth rates between unwounded and wounded corals will be asynchronous.</t>
+  </si>
+  <si>
+    <t>Hypotheses</t>
+  </si>
+  <si>
+    <t>Percent wound closure and signs of healing (1. repair of radial corallite structure(s), 2. presence of radial polyp(s), 3. repair of apical corallite) are indicators of regeneration. Damaged or lost tissue and skeleton removes surface area available for energy aquisition. Regeneration requires energy to fuel repair processes including wound closure, reconstructing corallites, and new polyp formation.</t>
+  </si>
+  <si>
+    <t>If energetic constraints are placed on regeneration, then  wound closure or signs of healing between unwounded and wounded corals will be asynchronous.</t>
+  </si>
+  <si>
+    <t>Percent wound closure and signs of healing</t>
+  </si>
+  <si>
+    <t>Synchronous wound closure and signs of healing between wound types indicates no difference in regeneration capacity. Asynchronous wound closure and signs of healing between wound types with the addition of elevated temperature indicates a temperature mediated regeneration capacity.</t>
+  </si>
+  <si>
+    <t>Increased respiration will indicate a colony-level stress response, placing energetic constraints on regeneration and/or growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If regeneration competes for energy with growth, then wounded corals will have reduced growth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If regenerative capacity varys with wound characteristics, then signs of healing will be asynchronous between fragment and abrasion wounds. If elevated temperature increases metabolic demand, then regenerative capacity will be reduced. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -107,6 +132,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -122,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,11 +178,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -142,10 +228,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -188,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{367FED34-F928-E145-8DE6-01DC9A09C4EB}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="A1:E4" xr:uid="{367FED34-F928-E145-8DE6-01DC9A09C4EB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{367FED34-F928-E145-8DE6-01DC9A09C4EB}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E5" xr:uid="{367FED34-F928-E145-8DE6-01DC9A09C4EB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -197,11 +316,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C4040FFE-7893-AD4A-8298-45D4470FE283}" name=" " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3D6D29FF-FC39-BC41-8687-B4EAA4DA4378}" name="Coral Holobiont Performance" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{82E08F36-D803-314E-A502-B104C10C204C}" name="Coral Symbiont Performance" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C9ADA761-79C1-8C41-B23A-F1B47C62BE08}" name="Energetic Trade-off" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{726D96C9-E206-8B4C-8C5A-11B9EAD3E53D}" name="Regenerative Capacity" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C4040FFE-7893-AD4A-8298-45D4470FE283}" name=" " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3D6D29FF-FC39-BC41-8687-B4EAA4DA4378}" name="Coral Holobiont Performance" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{82E08F36-D803-314E-A502-B104C10C204C}" name="Coral Symbiont Performance" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C9ADA761-79C1-8C41-B23A-F1B47C62BE08}" name="Energetic Trade-off" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{726D96C9-E206-8B4C-8C5A-11B9EAD3E53D}" name="Regenerative Capacity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -405,10 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E6A72F-40DE-7543-969F-F5CCAB71D01E}">
-  <dimension ref="A1:E4"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -418,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -430,12 +552,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -446,49 +568,308 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="252" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="196" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="196" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14EE7F-B748-3945-B042-3A5A476631D5}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="126" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="98" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46021673-C527-8F4A-BAD4-42F7751DD0DD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="98" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="196" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="84" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3495C916-02DA-F342-AEF1-DF6452282114}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="252" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="196" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="112" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1229FE08-A8A1-2C4F-B04D-9D2C8F78F231}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="182" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="154" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="98" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>